--- a/IntelligentProcessAutomationNLP/Automation/classificacaoapolices.xlsx
+++ b/IntelligentProcessAutomationNLP/Automation/classificacaoapolices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brunofilipe.lobo\Documents\Code\realvidaseguros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://groupecgi-my.sharepoint.com/personal/brunofilipe_lobo_cgi_com/Documents/Code/realvidaseguros/IntelligentProcessAutomationNLP/Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CFBAB4-D62E-4723-8809-B067EAA1D88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{04CFBAB4-D62E-4723-8809-B067EAA1D88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D575D4F-9435-4999-A721-8B137187EA91}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6F8AA7A-76E8-4413-9273-3DE994D0F211}"/>
+    <workbookView minimized="1" xWindow="6885" yWindow="-10230" windowWidth="21600" windowHeight="11295" xr2:uid="{A6F8AA7A-76E8-4413-9273-3DE994D0F211}"/>
   </bookViews>
   <sheets>
     <sheet name="Classificação Produtos" sheetId="1" r:id="rId1"/>
@@ -2418,9 +2418,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A181" sqref="A181"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4318,7 +4316,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>8</v>
       </c>
@@ -4335,7 +4333,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>8</v>
       </c>
@@ -4352,7 +4350,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>8</v>
       </c>
@@ -4369,7 +4367,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>8</v>
       </c>
@@ -4386,7 +4384,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>8</v>
       </c>
@@ -4403,7 +4401,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>8</v>
       </c>
@@ -4420,7 +4418,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>8</v>
       </c>
@@ -4437,7 +4435,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>8</v>
       </c>
@@ -4454,7 +4452,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>8</v>
       </c>
@@ -4471,7 +4469,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>8</v>
       </c>
@@ -4488,7 +4486,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>8</v>
       </c>
@@ -4505,7 +4503,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>8</v>
       </c>
@@ -4522,7 +4520,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>8</v>
       </c>
@@ -4539,7 +4537,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>8</v>
       </c>
@@ -4556,7 +4554,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>8</v>
       </c>
@@ -4573,7 +4571,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>8</v>
       </c>
@@ -4590,7 +4588,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>8</v>
       </c>
@@ -4607,7 +4605,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>8</v>
       </c>
@@ -4624,7 +4622,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>8</v>
       </c>
@@ -4641,7 +4639,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>8</v>
       </c>
@@ -4658,7 +4656,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>8</v>
       </c>
@@ -4675,7 +4673,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>8</v>
       </c>
@@ -4692,7 +4690,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>8</v>
       </c>
@@ -4709,7 +4707,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>8</v>
       </c>
@@ -4726,7 +4724,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>8</v>
       </c>
@@ -4743,7 +4741,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>8</v>
       </c>
@@ -4760,7 +4758,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>8</v>
       </c>
@@ -4777,7 +4775,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>8</v>
       </c>
@@ -4794,7 +4792,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>8</v>
       </c>
@@ -4811,7 +4809,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>8</v>
       </c>
@@ -4828,7 +4826,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>8</v>
       </c>
@@ -4845,7 +4843,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>8</v>
       </c>
@@ -4862,7 +4860,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>8</v>
       </c>
@@ -4879,7 +4877,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>8</v>
       </c>
@@ -4896,7 +4894,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>8</v>
       </c>
@@ -4913,7 +4911,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>8</v>
       </c>
@@ -4930,7 +4928,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>8</v>
       </c>
@@ -4947,7 +4945,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>8</v>
       </c>
@@ -4964,7 +4962,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>8</v>
       </c>
@@ -4981,7 +4979,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>8</v>
       </c>
@@ -4998,7 +4996,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>8</v>
       </c>
@@ -5015,7 +5013,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>8</v>
       </c>
@@ -5032,7 +5030,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>8</v>
       </c>
@@ -5049,7 +5047,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>8</v>
       </c>
@@ -5389,7 +5387,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>27</v>
       </c>
@@ -5406,7 +5404,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>27</v>
       </c>
@@ -5423,7 +5421,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>27</v>
       </c>
@@ -5440,7 +5438,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>27</v>
       </c>
@@ -5457,7 +5455,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>27</v>
       </c>
@@ -5474,7 +5472,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>27</v>
       </c>
@@ -5491,7 +5489,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>27</v>
       </c>
@@ -5508,7 +5506,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>28</v>
       </c>
@@ -5525,7 +5523,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>28</v>
       </c>
@@ -5542,7 +5540,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>28</v>
       </c>
@@ -5559,7 +5557,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>28</v>
       </c>
@@ -5576,7 +5574,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>28</v>
       </c>
@@ -5593,7 +5591,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>28</v>
       </c>
@@ -5610,7 +5608,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>28</v>
       </c>
@@ -5627,7 +5625,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>28</v>
       </c>
@@ -5644,7 +5642,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>28</v>
       </c>
@@ -5661,7 +5659,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>28</v>
       </c>
@@ -5678,7 +5676,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>28</v>
       </c>
@@ -5695,7 +5693,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>28</v>
       </c>
@@ -5712,7 +5710,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>28</v>
       </c>
@@ -5729,7 +5727,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>28</v>
       </c>
@@ -5746,7 +5744,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>28</v>
       </c>
@@ -5763,7 +5761,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>28</v>
       </c>
@@ -5780,7 +5778,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>28</v>
       </c>
@@ -5797,7 +5795,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>29</v>
       </c>
@@ -6970,7 +6968,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>47</v>
       </c>
@@ -6987,7 +6985,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>47</v>
       </c>
@@ -7004,7 +7002,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>47</v>
       </c>
@@ -7021,7 +7019,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>48</v>
       </c>
@@ -7038,7 +7036,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>48</v>
       </c>
@@ -7055,7 +7053,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>48</v>
       </c>
@@ -7072,7 +7070,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>48</v>
       </c>
@@ -7089,7 +7087,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>48</v>
       </c>
@@ -7106,7 +7104,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>48</v>
       </c>
@@ -7123,7 +7121,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>48</v>
       </c>
@@ -7140,7 +7138,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>48</v>
       </c>
@@ -7174,7 +7172,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>50</v>
       </c>
@@ -7191,7 +7189,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>51</v>
       </c>
@@ -7208,7 +7206,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>51</v>
       </c>
@@ -7225,7 +7223,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>51</v>
       </c>
@@ -7242,7 +7240,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>51</v>
       </c>
@@ -7259,7 +7257,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>51</v>
       </c>
@@ -7276,7 +7274,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>51</v>
       </c>
@@ -7293,7 +7291,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>51</v>
       </c>
@@ -7310,7 +7308,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>51</v>
       </c>
@@ -7327,7 +7325,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>51</v>
       </c>
@@ -7344,7 +7342,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>51</v>
       </c>
@@ -7361,7 +7359,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>51</v>
       </c>
@@ -7378,7 +7376,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>51</v>
       </c>
@@ -7395,7 +7393,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>51</v>
       </c>
@@ -7412,7 +7410,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>51</v>
       </c>
@@ -7429,7 +7427,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>51</v>
       </c>
@@ -7446,7 +7444,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>51</v>
       </c>
@@ -8024,7 +8022,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>56</v>
       </c>
@@ -8041,7 +8039,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>56</v>
       </c>
@@ -8517,7 +8515,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>62</v>
       </c>
@@ -8534,7 +8532,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>62</v>
       </c>
@@ -8551,7 +8549,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>62</v>
       </c>
@@ -8568,7 +8566,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>62</v>
       </c>
@@ -8585,7 +8583,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>62</v>
       </c>
@@ -8602,7 +8600,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>62</v>
       </c>
@@ -8619,7 +8617,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>62</v>
       </c>
@@ -8636,7 +8634,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>62</v>
       </c>
@@ -8653,7 +8651,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>62</v>
       </c>
@@ -8670,7 +8668,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>62</v>
       </c>
@@ -8687,7 +8685,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>62</v>
       </c>
@@ -8704,7 +8702,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>62</v>
       </c>
@@ -8721,7 +8719,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>62</v>
       </c>
@@ -8738,7 +8736,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>62</v>
       </c>
@@ -8755,7 +8753,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>62</v>
       </c>
@@ -8772,7 +8770,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>62</v>
       </c>
@@ -8789,7 +8787,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>62</v>
       </c>
@@ -8806,7 +8804,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>64</v>
       </c>
@@ -8823,7 +8821,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>64</v>
       </c>
@@ -8840,7 +8838,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>64</v>
       </c>
@@ -8857,7 +8855,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>64</v>
       </c>
@@ -8874,7 +8872,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>64</v>
       </c>
@@ -8891,7 +8889,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>64</v>
       </c>
@@ -8908,7 +8906,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>64</v>
       </c>
@@ -8925,7 +8923,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>64</v>
       </c>
@@ -8942,7 +8940,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>64</v>
       </c>
@@ -8959,7 +8957,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>62</v>
       </c>
@@ -8976,7 +8974,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>62</v>
       </c>
@@ -8993,7 +8991,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>62</v>
       </c>
@@ -9010,7 +9008,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>62</v>
       </c>
@@ -9027,7 +9025,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>62</v>
       </c>
@@ -9044,7 +9042,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>62</v>
       </c>
@@ -9061,7 +9059,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>62</v>
       </c>
@@ -9435,7 +9433,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>67</v>
       </c>
@@ -9452,7 +9450,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>67</v>
       </c>
@@ -9469,7 +9467,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>67</v>
       </c>
@@ -9486,7 +9484,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>67</v>
       </c>
@@ -9503,7 +9501,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>68</v>
       </c>
@@ -9520,7 +9518,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>68</v>
       </c>
@@ -9537,7 +9535,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>68</v>
       </c>
@@ -9554,7 +9552,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>68</v>
       </c>
@@ -9571,7 +9569,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>68</v>
       </c>
@@ -10149,7 +10147,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>70</v>
       </c>
@@ -10166,7 +10164,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>70</v>
       </c>
@@ -10183,7 +10181,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>70</v>
       </c>
@@ -10200,7 +10198,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>70</v>
       </c>
@@ -10217,7 +10215,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>71</v>
       </c>
@@ -10234,7 +10232,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>71</v>
       </c>
@@ -10251,7 +10249,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>71</v>
       </c>
@@ -10268,7 +10266,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>71</v>
       </c>
@@ -10285,7 +10283,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>71</v>
       </c>
@@ -10302,7 +10300,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>71</v>
       </c>
@@ -10319,7 +10317,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>71</v>
       </c>
@@ -10336,7 +10334,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>71</v>
       </c>
@@ -10353,7 +10351,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>71</v>
       </c>
@@ -10370,7 +10368,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>71</v>
       </c>
@@ -10387,7 +10385,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>71</v>
       </c>
@@ -10404,7 +10402,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>71</v>
       </c>
@@ -10421,7 +10419,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>71</v>
       </c>
@@ -10438,7 +10436,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>71</v>
       </c>
@@ -10455,7 +10453,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>71</v>
       </c>
@@ -10472,7 +10470,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>71</v>
       </c>
@@ -10489,7 +10487,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>71</v>
       </c>
@@ -10591,7 +10589,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>88</v>
       </c>
@@ -10608,7 +10606,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>88</v>
       </c>
@@ -10625,7 +10623,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>88</v>
       </c>
@@ -10642,7 +10640,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>88</v>
       </c>
@@ -10659,7 +10657,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>88</v>
       </c>
@@ -12225,9 +12223,15 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E576" xr:uid="{CDB0F905-B318-40E1-97F4-7918C4779CBD}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="08"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="Financeiro"/>
+        <filter val="Acidentes Pessoais"/>
+        <filter val="Vida Risco"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -12240,12 +12244,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="91c5f9d4-dd07-4c67-8037-5a8a9f4c562a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4763b841-996d-4bb9-8356-220f3532f807" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="91c5f9d4-dd07-4c67-8037-5a8a9f4c562a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12498,21 +12505,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="91c5f9d4-dd07-4c67-8037-5a8a9f4c562a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4763b841-996d-4bb9-8356-220f3532f807" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="91c5f9d4-dd07-4c67-8037-5a8a9f4c562a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A4F95BC-2C3D-432B-87ED-8ECCE1C32926}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1C0699B-8AFE-4C2C-B5EE-04C87285BCE8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="91c5f9d4-dd07-4c67-8037-5a8a9f4c562a"/>
+    <ds:schemaRef ds:uri="4763b841-996d-4bb9-8356-220f3532f807"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12537,12 +12544,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1C0699B-8AFE-4C2C-B5EE-04C87285BCE8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A4F95BC-2C3D-432B-87ED-8ECCE1C32926}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="91c5f9d4-dd07-4c67-8037-5a8a9f4c562a"/>
-    <ds:schemaRef ds:uri="4763b841-996d-4bb9-8356-220f3532f807"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/IntelligentProcessAutomationNLP/Automation/classificacaoapolices.xlsx
+++ b/IntelligentProcessAutomationNLP/Automation/classificacaoapolices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://groupecgi-my.sharepoint.com/personal/brunofilipe_lobo_cgi_com/Documents/Code/realvidaseguros/IntelligentProcessAutomationNLP/Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{04CFBAB4-D62E-4723-8809-B067EAA1D88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D575D4F-9435-4999-A721-8B137187EA91}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{04CFBAB4-D62E-4723-8809-B067EAA1D88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49B5C319-9360-4B7C-950A-372FD11BD8ED}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6885" yWindow="-10230" windowWidth="21600" windowHeight="11295" xr2:uid="{A6F8AA7A-76E8-4413-9273-3DE994D0F211}"/>
+    <workbookView xWindow="-4860" yWindow="-16320" windowWidth="38640" windowHeight="15720" xr2:uid="{A6F8AA7A-76E8-4413-9273-3DE994D0F211}"/>
   </bookViews>
   <sheets>
     <sheet name="Classificação Produtos" sheetId="1" r:id="rId1"/>
@@ -2418,7 +2418,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E593" sqref="E593"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4316,7 +4318,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>8</v>
       </c>
@@ -4333,7 +4335,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>8</v>
       </c>
@@ -4350,7 +4352,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>8</v>
       </c>
@@ -4367,7 +4369,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>8</v>
       </c>
@@ -4384,7 +4386,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>8</v>
       </c>
@@ -4401,7 +4403,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>8</v>
       </c>
@@ -4418,7 +4420,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>8</v>
       </c>
@@ -4435,7 +4437,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>8</v>
       </c>
@@ -4452,7 +4454,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>8</v>
       </c>
@@ -4469,7 +4471,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>8</v>
       </c>
@@ -4486,7 +4488,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>8</v>
       </c>
@@ -4503,7 +4505,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>8</v>
       </c>
@@ -4520,7 +4522,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>8</v>
       </c>
@@ -4537,7 +4539,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>8</v>
       </c>
@@ -4554,7 +4556,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>8</v>
       </c>
@@ -4571,7 +4573,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>8</v>
       </c>
@@ -4588,7 +4590,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>8</v>
       </c>
@@ -4605,7 +4607,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>8</v>
       </c>
@@ -4622,7 +4624,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>8</v>
       </c>
@@ -4639,7 +4641,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>8</v>
       </c>
@@ -4656,7 +4658,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>8</v>
       </c>
@@ -4673,7 +4675,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>8</v>
       </c>
@@ -4690,7 +4692,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>8</v>
       </c>
@@ -4707,7 +4709,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>8</v>
       </c>
@@ -4724,7 +4726,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>8</v>
       </c>
@@ -4741,7 +4743,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>8</v>
       </c>
@@ -4758,7 +4760,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>8</v>
       </c>
@@ -4775,7 +4777,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>8</v>
       </c>
@@ -4792,7 +4794,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>8</v>
       </c>
@@ -4809,7 +4811,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>8</v>
       </c>
@@ -4826,7 +4828,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>8</v>
       </c>
@@ -4843,7 +4845,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>8</v>
       </c>
@@ -4860,7 +4862,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>8</v>
       </c>
@@ -4877,7 +4879,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>8</v>
       </c>
@@ -4894,7 +4896,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>8</v>
       </c>
@@ -4911,7 +4913,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>8</v>
       </c>
@@ -4928,7 +4930,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>8</v>
       </c>
@@ -4945,7 +4947,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>8</v>
       </c>
@@ -4962,7 +4964,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>8</v>
       </c>
@@ -4979,7 +4981,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>8</v>
       </c>
@@ -4996,7 +4998,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>8</v>
       </c>
@@ -5013,7 +5015,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>8</v>
       </c>
@@ -5030,7 +5032,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>8</v>
       </c>
@@ -5047,7 +5049,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>8</v>
       </c>
@@ -11371,7 +11373,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>91</v>
       </c>
@@ -11388,7 +11390,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>91</v>
       </c>
@@ -11405,7 +11407,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>91</v>
       </c>
@@ -12225,13 +12227,14 @@
   <autoFilter ref="A1:E576" xr:uid="{CDB0F905-B318-40E1-97F4-7918C4779CBD}">
     <filterColumn colId="0">
       <filters>
-        <filter val="08"/>
+        <filter val="91"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="3">
+    <filterColumn colId="1">
       <filters>
-        <filter val="Acidentes Pessoais"/>
-        <filter val="Vida Risco"/>
+        <filter val="45"/>
+        <filter val="46"/>
+        <filter val="47"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -12244,18 +12247,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="91c5f9d4-dd07-4c67-8037-5a8a9f4c562a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4763b841-996d-4bb9-8356-220f3532f807" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="91c5f9d4-dd07-4c67-8037-5a8a9f4c562a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002858DAD289781645BC88695D4D047849" ma:contentTypeVersion="17" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="2a82a73fcd02f27ef8c739e4489d1759">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="91c5f9d4-dd07-4c67-8037-5a8a9f4c562a" xmlns:ns3="4763b841-996d-4bb9-8356-220f3532f807" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83fe05aad086cdc287d7254db9a7da82" ns2:_="" ns3:_="">
     <xsd:import namespace="91c5f9d4-dd07-4c67-8037-5a8a9f4c562a"/>
@@ -12504,6 +12495,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="91c5f9d4-dd07-4c67-8037-5a8a9f4c562a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4763b841-996d-4bb9-8356-220f3532f807" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="91c5f9d4-dd07-4c67-8037-5a8a9f4c562a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12514,17 +12517,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1C0699B-8AFE-4C2C-B5EE-04C87285BCE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="91c5f9d4-dd07-4c67-8037-5a8a9f4c562a"/>
-    <ds:schemaRef ds:uri="4763b841-996d-4bb9-8356-220f3532f807"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA757C16-5D73-4212-BD8B-E4DFDD41E7F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12543,6 +12535,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1C0699B-8AFE-4C2C-B5EE-04C87285BCE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="91c5f9d4-dd07-4c67-8037-5a8a9f4c562a"/>
+    <ds:schemaRef ds:uri="4763b841-996d-4bb9-8356-220f3532f807"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A4F95BC-2C3D-432B-87ED-8ECCE1C32926}">
   <ds:schemaRefs>
